--- a/Assets/adventure_content.xlsx
+++ b/Assets/adventure_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T685554\OneDrive - Trinseo\Desktop\Work\Tools\Python\To Do List\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A0CF2-93B5-438B-9640-1332D7383939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3255160-AF33-4541-8E65-A2D29BECBA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="659">
   <si>
     <t>TypeModifier</t>
   </si>
@@ -1712,15 +1712,9 @@
     <t>Fake Potion</t>
   </si>
   <si>
-    <t>Attack Buff</t>
-  </si>
-  <si>
     <t>Attack</t>
   </si>
   <si>
-    <t>Attack Debuff</t>
-  </si>
-  <si>
     <t>Chance</t>
   </si>
   <si>
@@ -1733,12 +1727,6 @@
     <t>The adventurer is walking in cloudy woods</t>
   </si>
   <si>
-    <t>Someone has clogged the toilet</t>
-  </si>
-  <si>
-    <t>the adventurer searches for a plunger</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1754,15 +1742,9 @@
     <t>Stat</t>
   </si>
   <si>
-    <t>+10 HP</t>
-  </si>
-  <si>
     <t>Sharp Blade</t>
   </si>
   <si>
-    <t>+5 Attack</t>
-  </si>
-  <si>
     <t>Double Strike</t>
   </si>
   <si>
@@ -1830,6 +1812,213 @@
   </si>
   <si>
     <t>Skateboard</t>
+  </si>
+  <si>
+    <t>+1 HP</t>
+  </si>
+  <si>
+    <t>+1 Attack</t>
+  </si>
+  <si>
+    <t>The adventurer  negotiates with the PLC gremlins to restore conveyor belt harmony.</t>
+  </si>
+  <si>
+    <t>The adventurer hides from the office coordinator behind a stack of unsorted invoices.</t>
+  </si>
+  <si>
+    <t>The adventurer holds breath while HR passes, muttering about compliance audits.</t>
+  </si>
+  <si>
+    <t>The adventurer searches ancient tomes in the musty archives for forgotten schematics.</t>
+  </si>
+  <si>
+    <t>The adventurer battles a swarm of filing cabinet wyrms guarding last year’s reports.</t>
+  </si>
+  <si>
+    <t>The adventurer rewires a flickering fluorescent light, dispelling shadows in the break room.</t>
+  </si>
+  <si>
+    <t>The adventurer consults the coffee-stained oracle in the cafeteria for cryptic task advice.</t>
+  </si>
+  <si>
+    <t>The adventurer defuses a jammed photocopier before it summons a paper elemental.</t>
+  </si>
+  <si>
+    <t>The adventurer finds ancient wall-carvings describing a cursed stapler that binds papers with unnatural force.</t>
+  </si>
+  <si>
+    <t>The adventurer slips on spilled hydraulic fluid, narrowly avoiding a cursed machine spirit. A near-miss is filed.</t>
+  </si>
+  <si>
+    <t>The adventurer ventures into the server room, braving its icy chill to reset the router.</t>
+  </si>
+  <si>
+    <t>The adventurer unearths a dusty floppy disk inscribed with runes of obsolete code.</t>
+  </si>
+  <si>
+    <t>The adventurer whispers a password to the ancient fax machine, hoping it accepts.</t>
+  </si>
+  <si>
+    <t>The adventurer navigates a maze of cardboard boxes in the shipping dock’s twilight.</t>
+  </si>
+  <si>
+    <t>The adventurer steals a moment of peace in the rooftop vent, gazing at smoggy stars.</t>
+  </si>
+  <si>
+    <t>The adventurer placates the boiler room’s steam wraith with an offering of spare bolts.</t>
+  </si>
+  <si>
+    <t>The adventurer deciphers a scribbled post-it note, revealing a hidden meeting agenda.</t>
+  </si>
+  <si>
+    <t>The adventurer frantically empties his wallet, fending off a vending machine’s wrath.</t>
+  </si>
+  <si>
+    <t>The adventurer barricades the cubicle against a rogue vendor's flying catalogue assault.</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Decaf</t>
+  </si>
+  <si>
+    <t>A flickering EXIT sign hums above a rusted factory door.</t>
+  </si>
+  <si>
+    <t>Decaf coffee is brewing in the break room’s ancient pot.</t>
+  </si>
+  <si>
+    <t>The smokers are at the smoke shed, whispering under dim lights.</t>
+  </si>
+  <si>
+    <t>A mandatory safety meeting is about to start in the conference room.</t>
+  </si>
+  <si>
+    <t>A union code-book is sitting on the water-cooler, pages dog-eared.</t>
+  </si>
+  <si>
+    <t>Someone wearing a suit has pulled into the parking lot, engine idling.</t>
+  </si>
+  <si>
+    <t>The conveyor belt groans under the weight of unseen cargo.</t>
+  </si>
+  <si>
+    <t>A single fluorescent bulb buzzes in the abandoned assembly line.</t>
+  </si>
+  <si>
+    <t>Shadows dance on the server room walls, cast by no visible source.</t>
+  </si>
+  <si>
+    <t>A forgotten timesheet flutters in the draft of a sealed vent.</t>
+  </si>
+  <si>
+    <t>The boiler room’s pressure gauge needle trembles at the redline.</t>
+  </si>
+  <si>
+    <t>A stack of unmarked crates looms in the shipping dock’s gloom.</t>
+  </si>
+  <si>
+    <t>The photocopier hums, spitting out pages with no one nearby.</t>
+  </si>
+  <si>
+    <t>A cracked monitor in the control room flickers with static runes.</t>
+  </si>
+  <si>
+    <t>The vending machine’s lights pulse faintly, out of sync.</t>
+  </si>
+  <si>
+    <t>A trail of hydraulic fluid glistens across the factory floor.</t>
+  </si>
+  <si>
+    <t>The archive’s filing cabinets stand ajar, papers spilling out.</t>
+  </si>
+  <si>
+    <t>A lone hardhat rests on a workbench, coated in arcane dust.</t>
+  </si>
+  <si>
+    <t>The cafeteria’s clock ticks backward under a flickering bulb.</t>
+  </si>
+  <si>
+    <t>A memo about “containment protocols” is pinned to the notice board.</t>
+  </si>
+  <si>
+    <t>The rooftop vent emits a low, unearthly whistle in the smog.</t>
+  </si>
+  <si>
+    <t>A dusty ledger on the foreman’s desk is open to a blank page.</t>
+  </si>
+  <si>
+    <t>A soft breeze carries the scent of oil and pine through the factory yard.</t>
+  </si>
+  <si>
+    <t>Moonlight filters through cracked warehouse windows, pooling on the floor.</t>
+  </si>
+  <si>
+    <t>The foggy woods glow faintly beyond the chain-link fence.</t>
+  </si>
+  <si>
+    <t>A distant radio hums a forgotten tune in the maintenance shed.</t>
+  </si>
+  <si>
+    <t>Morning dew glistens on rusted gears left in the loading bay.</t>
+  </si>
+  <si>
+    <t>The cafeteria’s coffee pot steams gently, untouched in the dawn light.</t>
+  </si>
+  <si>
+    <t>A single sparrow perches on a silent conveyor belt, chirping softly.</t>
+  </si>
+  <si>
+    <t>Faint starlight pierces the smog above the rooftop exhaust.</t>
+  </si>
+  <si>
+    <t>The archives’ dusty tomes sit quietly under a shaft of pale sunlight.</t>
+  </si>
+  <si>
+    <t>A warm glow spills from the break room’s half-open door.</t>
+  </si>
+  <si>
+    <t>The server room’s hum softens to a rhythmic, calming pulse.</t>
+  </si>
+  <si>
+    <t>A stray cat naps on a warm pipe in the boiler room’s shadows.</t>
+  </si>
+  <si>
+    <t>The parking lot’s lamplight casts gentle halos in the evening mist.</t>
+  </si>
+  <si>
+    <t>A forgotten lunchbox rests on a workbench, its thermos still warm.</t>
+  </si>
+  <si>
+    <t>The shipping dock’s silence is broken by a distant owl’s call.</t>
+  </si>
+  <si>
+    <t>A lone fluorescent flickers, bathing the hallway in soft, uneven light.</t>
+  </si>
+  <si>
+    <t>The vending machine’s hum blends with crickets outside the factory gate.</t>
+  </si>
+  <si>
+    <t>A stack of old blueprints flutters gently in a cool archive breeze.</t>
+  </si>
+  <si>
+    <t>The rooftop vent offers a view of twinkling lights in the foggy valley.</t>
+  </si>
+  <si>
+    <t>A quiet sunrise paints the factory’s smokestacks in hues of gold.</t>
+  </si>
+  <si>
+    <t>The sound of a train can be heard in the distance.</t>
+  </si>
+  <si>
+    <t>Someone has clogged the toilet.</t>
+  </si>
+  <si>
+    <t>The adventurer searches for a plunger.</t>
+  </si>
+  <si>
+    <t>The adventurer brews a pot of coffee, an ancient secret to banishing fatigue.</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +2062,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3566,7 +3756,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,10 +3808,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B4" t="s">
         <v>556</v>
-      </c>
-      <c r="B4" t="s">
-        <v>557</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -3632,10 +3822,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C5">
         <v>-5</v>
@@ -3666,19 +3856,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C1" t="s">
         <v>551</v>
       </c>
       <c r="D1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F1" t="s">
         <v>554</v>
@@ -3686,19 +3876,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -3706,19 +3896,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -3731,10 +3921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B3ACF2-8FE7-40B3-A652-769AA5583BB6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,16 +3934,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,10 +3973,328 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>564</v>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E66">
+    <sortCondition ref="E2:E66"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3796,14 +4304,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -3811,99 +4319,99 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C1" t="s">
         <v>554</v>
       </c>
       <c r="D1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E1" t="s">
         <v>551</v>
       </c>
       <c r="F1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>569</v>
-      </c>
-      <c r="E2" t="s">
-        <v>570</v>
+        <v>565</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>590</v>
       </c>
       <c r="F2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E3" t="s">
-        <v>572</v>
+        <v>565</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>591</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -3915,7 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AD8BB6-FBF9-43EC-A14D-47B1601D2659}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
@@ -4011,7 +4519,7 @@
         <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,7 +5124,7 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,7 +5410,7 @@
         <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">

--- a/Assets/adventure_content.xlsx
+++ b/Assets/adventure_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T685554\OneDrive - Trinseo\Desktop\Work\Tools\Python\To Do List\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3255160-AF33-4541-8E65-A2D29BECBA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B1F06-86AF-4F3F-8C35-0A3A455A0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="739">
   <si>
     <t>TypeModifier</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Dusty</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
     <t>Timid</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Caffeinated</t>
   </si>
   <si>
-    <t>Troll</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Scratched</t>
   </si>
   <si>
-    <t>Boar</t>
-  </si>
-  <si>
     <t>Irritated</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>Stale</t>
   </si>
   <si>
-    <t>Ogre</t>
-  </si>
-  <si>
     <t>Disgruntled</t>
   </si>
   <si>
@@ -278,9 +266,6 @@
     <t>Cracked</t>
   </si>
   <si>
-    <t>Bear</t>
-  </si>
-  <si>
     <t>Frustrated</t>
   </si>
   <si>
@@ -380,9 +365,6 @@
     <t>Aggressive</t>
   </si>
   <si>
-    <t>Rhino</t>
-  </si>
-  <si>
     <t>Relentless</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>Daunting</t>
   </si>
   <si>
-    <t>Lion</t>
-  </si>
-  <si>
     <t>Terrifying</t>
   </si>
   <si>
@@ -476,9 +455,6 @@
     <t>Brutal</t>
   </si>
   <si>
-    <t>Hydra</t>
-  </si>
-  <si>
     <t>Savage</t>
   </si>
   <si>
@@ -491,9 +467,6 @@
     <t>Chimera</t>
   </si>
   <si>
-    <t>Vicious</t>
-  </si>
-  <si>
     <t>Planner</t>
   </si>
   <si>
@@ -515,9 +488,6 @@
     <t>Dragon</t>
   </si>
   <si>
-    <t>Rabid</t>
-  </si>
-  <si>
     <t>Consultant</t>
   </si>
   <si>
@@ -545,21 +515,12 @@
     <t>Foreman</t>
   </si>
   <si>
-    <t>Insane</t>
-  </si>
-  <si>
     <t>Golem</t>
   </si>
   <si>
-    <t>Deranged</t>
-  </si>
-  <si>
     <t>Overseer</t>
   </si>
   <si>
-    <t>Unhinged</t>
-  </si>
-  <si>
     <t>Harpy</t>
   </si>
   <si>
@@ -581,39 +542,21 @@
     <t>Executive</t>
   </si>
   <si>
-    <t>Infernal</t>
-  </si>
-  <si>
     <t>Siren</t>
   </si>
   <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>Diabolical</t>
-  </si>
-  <si>
-    <t>Vampire</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
-    <t>Accursed</t>
-  </si>
-  <si>
     <t>Werewolf</t>
   </si>
   <si>
     <t>Federal</t>
   </si>
   <si>
-    <t>Cursed</t>
-  </si>
-  <si>
-    <t>Djinn</t>
-  </si>
-  <si>
     <t>Haunted</t>
   </si>
   <si>
@@ -626,93 +569,45 @@
     <t>Phantom</t>
   </si>
   <si>
-    <t>Ethereal</t>
-  </si>
-  <si>
     <t>Enforcer</t>
   </si>
   <si>
-    <t>Otherworldly</t>
-  </si>
-  <si>
     <t>Wraith</t>
   </si>
   <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
     <t>Investigator</t>
   </si>
   <si>
-    <t>Eldritch</t>
-  </si>
-  <si>
     <t>Specter</t>
   </si>
   <si>
-    <t>Cosmic</t>
-  </si>
-  <si>
     <t>Taskmaster</t>
   </si>
   <si>
-    <t>Abyssal</t>
-  </si>
-  <si>
     <t>Shadow</t>
   </si>
   <si>
-    <t>Primordial</t>
-  </si>
-  <si>
     <t>Bureaucrat</t>
   </si>
   <si>
-    <t>Ancient</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
-    <t>Timeless</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
-    <t>Eternal</t>
-  </si>
-  <si>
     <t>Sentinel</t>
   </si>
   <si>
-    <t>Immortal</t>
-  </si>
-  <si>
     <t>Gatekeeper</t>
   </si>
   <si>
     <t>Arbiter</t>
   </si>
   <si>
-    <t>Celestial</t>
-  </si>
-  <si>
-    <t>Protector</t>
-  </si>
-  <si>
-    <t>Deity</t>
-  </si>
-  <si>
     <t>Architect</t>
   </si>
   <si>
-    <t>Supreme</t>
-  </si>
-  <si>
-    <t>Creator</t>
-  </si>
-  <si>
     <t>Reporter</t>
   </si>
   <si>
@@ -2019,6 +1914,351 @@
   </si>
   <si>
     <t>The adventurer brews a pot of coffee, an ancient secret to banishing fatigue.</t>
+  </si>
+  <si>
+    <t>Mechanical Malfunction</t>
+  </si>
+  <si>
+    <t>Code Malfunction</t>
+  </si>
+  <si>
+    <t>Aggrieved</t>
+  </si>
+  <si>
+    <t>Peeling</t>
+  </si>
+  <si>
+    <t>Fractured</t>
+  </si>
+  <si>
+    <t>Sputtering</t>
+  </si>
+  <si>
+    <t>Greasy</t>
+  </si>
+  <si>
+    <t>Loose</t>
+  </si>
+  <si>
+    <t>Patched</t>
+  </si>
+  <si>
+    <t>Leaky</t>
+  </si>
+  <si>
+    <t>Threadbare</t>
+  </si>
+  <si>
+    <t>Bent</t>
+  </si>
+  <si>
+    <t>Grooved</t>
+  </si>
+  <si>
+    <t>Dingy</t>
+  </si>
+  <si>
+    <t>Flaky</t>
+  </si>
+  <si>
+    <t>Dented</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
+  <si>
+    <t>Murky</t>
+  </si>
+  <si>
+    <t>Sooty</t>
+  </si>
+  <si>
+    <t>Warped</t>
+  </si>
+  <si>
+    <t>Pitted</t>
+  </si>
+  <si>
+    <t>Fritzing</t>
+  </si>
+  <si>
+    <t>Gritty</t>
+  </si>
+  <si>
+    <t>Mucky</t>
+  </si>
+  <si>
+    <t>Jammy</t>
+  </si>
+  <si>
+    <t>Bubbled</t>
+  </si>
+  <si>
+    <t>Crooked</t>
+  </si>
+  <si>
+    <t>Dull</t>
+  </si>
+  <si>
+    <t>Lopsided</t>
+  </si>
+  <si>
+    <t>Scorched</t>
+  </si>
+  <si>
+    <t>Droning</t>
+  </si>
+  <si>
+    <t>Buzzing</t>
+  </si>
+  <si>
+    <t>Pocked</t>
+  </si>
+  <si>
+    <t>Rustling</t>
+  </si>
+  <si>
+    <t>Rattling</t>
+  </si>
+  <si>
+    <t>Oily</t>
+  </si>
+  <si>
+    <t>Metallic</t>
+  </si>
+  <si>
+    <t>Humming</t>
+  </si>
+  <si>
+    <t>Bumpy</t>
+  </si>
+  <si>
+    <t>Jangly</t>
+  </si>
+  <si>
+    <t>Fizzing</t>
+  </si>
+  <si>
+    <t>Blotchy</t>
+  </si>
+  <si>
+    <t>Swirled</t>
+  </si>
+  <si>
+    <t>Wrinkled</t>
+  </si>
+  <si>
+    <t>Hazy</t>
+  </si>
+  <si>
+    <t>Clouded</t>
+  </si>
+  <si>
+    <t>Pasty</t>
+  </si>
+  <si>
+    <t>Tacky</t>
+  </si>
+  <si>
+    <t>Chalky</t>
+  </si>
+  <si>
+    <t>Speckled</t>
+  </si>
+  <si>
+    <t>Meandering</t>
+  </si>
+  <si>
+    <t>Fragmented</t>
+  </si>
+  <si>
+    <t>Pungent</t>
+  </si>
+  <si>
+    <t>Discolored</t>
+  </si>
+  <si>
+    <t>Fuming</t>
+  </si>
+  <si>
+    <t>Blinking</t>
+  </si>
+  <si>
+    <t>Hissing</t>
+  </si>
+  <si>
+    <t>Marked</t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>Crusty</t>
+  </si>
+  <si>
+    <t>Splattered</t>
+  </si>
+  <si>
+    <t>Shimmering</t>
+  </si>
+  <si>
+    <t>Matte</t>
+  </si>
+  <si>
+    <t>Coated</t>
+  </si>
+  <si>
+    <t>Linty</t>
+  </si>
+  <si>
+    <t>Threaded</t>
+  </si>
+  <si>
+    <t>Banded</t>
+  </si>
+  <si>
+    <t>Streaked</t>
+  </si>
+  <si>
+    <t>Buzzed</t>
+  </si>
+  <si>
+    <t>Etched</t>
+  </si>
+  <si>
+    <t>Murmuring</t>
+  </si>
+  <si>
+    <t>Faint</t>
+  </si>
+  <si>
+    <t>Near Miss</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Policy-Enforced</t>
+  </si>
+  <si>
+    <t>Locked Down</t>
+  </si>
+  <si>
+    <t>Quarantined</t>
+  </si>
+  <si>
+    <t>Sealed</t>
+  </si>
+  <si>
+    <t>Isolated</t>
+  </si>
+  <si>
+    <t>Confined</t>
+  </si>
+  <si>
+    <t>Blacklisted</t>
+  </si>
+  <si>
+    <t>Flagged</t>
+  </si>
+  <si>
+    <t>Risk-Assessed</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Escalated</t>
+  </si>
+  <si>
+    <t>Incident-Class</t>
+  </si>
+  <si>
+    <t>Code-Yellow</t>
+  </si>
+  <si>
+    <t>Code-Red</t>
+  </si>
+  <si>
+    <t>Disaster-Level</t>
+  </si>
+  <si>
+    <t>Internal Audit</t>
+  </si>
+  <si>
+    <t>External Audit</t>
+  </si>
+  <si>
+    <t>Compliance-Critical</t>
+  </si>
+  <si>
+    <t>Top Priority</t>
+  </si>
+  <si>
+    <t>Board Notified</t>
+  </si>
+  <si>
+    <t>Legal Action Pending</t>
+  </si>
+  <si>
+    <t>Investigation Underway</t>
+  </si>
+  <si>
+    <t>Whistleblown</t>
+  </si>
+  <si>
+    <t>HR Escalated</t>
+  </si>
+  <si>
+    <t>Multi-Departmental</t>
+  </si>
+  <si>
+    <t>Crisis Mode</t>
+  </si>
+  <si>
+    <t>Full Lockout</t>
+  </si>
+  <si>
+    <t>Executive-Level</t>
+  </si>
+  <si>
+    <t>Red-Taped</t>
+  </si>
+  <si>
+    <t>Long-Winded</t>
+  </si>
+  <si>
+    <t>Corporate Strategist</t>
+  </si>
+  <si>
+    <t>Unmarked Binder</t>
+  </si>
+  <si>
+    <t>Missing Access Form</t>
+  </si>
+  <si>
+    <t>Compliance Manifest</t>
+  </si>
+  <si>
+    <t>Policy Wraith</t>
+  </si>
+  <si>
+    <t>Infinite Audit</t>
+  </si>
+  <si>
+    <t>DCS Overhaul</t>
+  </si>
+  <si>
+    <t>Rhinoceros</t>
+  </si>
+  <si>
+    <t>Forgotten Project</t>
+  </si>
+  <si>
+    <t>Zoning Committee</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2311,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2462,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777EBB67-9221-49C0-B4BC-5E4534CCD6A8}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,7 +2775,7 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2485,19 +2785,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H1"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2505,20 +2806,18 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2526,20 +2825,18 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>658</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>624</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -2547,20 +2844,18 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>674</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2568,20 +2863,18 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>692</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -2589,20 +2882,18 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>667</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2610,20 +2901,18 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>630</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2631,20 +2920,18 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>689</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2652,20 +2939,18 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2673,20 +2958,18 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2694,20 +2977,18 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>645</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2715,20 +2996,18 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>625</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2736,20 +3015,18 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>655</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>696</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2757,20 +3034,18 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>669</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2778,20 +3053,18 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2799,20 +3072,18 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>636</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2820,933 +3091,1325 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>691</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>631</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>665</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>663</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>661</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>668</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>654</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>626</v>
+      </c>
+      <c r="B35" t="s">
+        <v>672</v>
+      </c>
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>656</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>685</v>
+      </c>
+      <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>643</v>
       </c>
       <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>699</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>664</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>649</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>688</v>
       </c>
       <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
+        <v>651</v>
+      </c>
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>680</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>690</v>
+      </c>
+      <c r="C47" t="s">
+        <v>736</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>115</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B48" t="s">
+        <v>686</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>698</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>117</v>
       </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B50" t="s">
+        <v>677</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" t="s">
+        <v>638</v>
+      </c>
+      <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>727</v>
+      </c>
+      <c r="B53" t="s">
+        <v>632</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>716</v>
+      </c>
+      <c r="B54" t="s">
+        <v>627</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>675</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>705</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>641</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>707</v>
+      </c>
+      <c r="B59" t="s">
+        <v>670</v>
+      </c>
+      <c r="C59" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>135</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>147</v>
-      </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>684</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>709</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>708</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>710</v>
+      </c>
+      <c r="B63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>701</v>
+      </c>
+      <c r="B64" t="s">
+        <v>635</v>
+      </c>
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>659</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>156</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>687</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>711</v>
+      </c>
+      <c r="B68" t="s">
+        <v>640</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>700</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>176</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>153</v>
       </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>704</v>
+      </c>
+      <c r="B71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>175</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>681</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>712</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>177</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>702</v>
+      </c>
+      <c r="B75" t="s">
+        <v>673</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>644</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>713</v>
+      </c>
+      <c r="B77" t="s">
+        <v>693</v>
+      </c>
+      <c r="C77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>703</v>
+      </c>
+      <c r="B78" t="s">
+        <v>679</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>718</v>
+      </c>
+      <c r="B79" t="s">
+        <v>683</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>714</v>
+      </c>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>722</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>715</v>
+      </c>
+      <c r="B82" t="s">
+        <v>628</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>724</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>723</v>
+      </c>
+      <c r="B84" t="s">
+        <v>682</v>
+      </c>
+      <c r="C84" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>725</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>726</v>
+      </c>
+      <c r="B86" t="s">
+        <v>642</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>719</v>
+      </c>
+      <c r="B87" t="s">
+        <v>629</v>
+      </c>
+      <c r="C87" t="s">
+        <v>129</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>721</v>
+      </c>
+      <c r="B89" t="s">
+        <v>653</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>717</v>
+      </c>
+      <c r="B90" t="s">
+        <v>695</v>
+      </c>
+      <c r="C90" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B71" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B91" t="s">
+        <v>657</v>
+      </c>
+      <c r="C91" t="s">
+        <v>147</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>187</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>706</v>
+      </c>
+      <c r="B93" t="s">
+        <v>648</v>
+      </c>
+      <c r="C93" t="s">
+        <v>729</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>671</v>
+      </c>
+      <c r="C94" t="s">
+        <v>738</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>730</v>
+      </c>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>634</v>
+      </c>
+      <c r="C96" t="s">
+        <v>731</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" t="s">
+        <v>660</v>
+      </c>
+      <c r="C97" t="s">
+        <v>737</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" t="s">
+        <v>678</v>
+      </c>
+      <c r="C98" t="s">
+        <v>732</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>171</v>
       </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C74" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>181</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>182</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B80" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>188</v>
-      </c>
-      <c r="B82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B99" t="s">
+        <v>647</v>
+      </c>
+      <c r="C99" t="s">
+        <v>733</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>196</v>
-      </c>
-      <c r="B86" t="s">
-        <v>67</v>
-      </c>
-      <c r="C86" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>198</v>
-      </c>
-      <c r="B87" t="s">
-        <v>28</v>
-      </c>
-      <c r="C87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>200</v>
-      </c>
-      <c r="B88" t="s">
-        <v>37</v>
-      </c>
-      <c r="C88" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>204</v>
-      </c>
-      <c r="B90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>206</v>
-      </c>
-      <c r="B91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C92" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>214</v>
-      </c>
-      <c r="B95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>217</v>
-      </c>
-      <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>227</v>
-      </c>
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>228</v>
-      </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>728</v>
       </c>
       <c r="B101" t="s">
-        <v>88</v>
+        <v>666</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I200" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H1:I200">
+    <sortCondition ref="I1:I200"/>
+  </sortState>
+  <conditionalFormatting sqref="B1 B102:B1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 A102:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B101">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3766,24 +4429,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="C1" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -3794,10 +4457,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="C3">
         <v>-20</v>
@@ -3808,10 +4471,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -3822,10 +4485,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="C5">
         <v>-5</v>
@@ -3856,39 +4519,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="D1" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="E1" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="F1" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -3896,19 +4559,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -3923,7 +4586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B3ACF2-8FE7-40B3-A652-769AA5583BB6}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
@@ -3934,16 +4597,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="D1" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3962,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,322 +4636,322 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>654</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>608</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>646</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>602</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>607</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>650</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>609</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>653</v>
+        <v>618</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>635</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>652</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>656</v>
+        <v>621</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>657</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>610</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>603</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>649</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>637</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>639</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>640</v>
+        <v>605</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>613</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>655</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -4319,99 +4982,99 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C1" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="D1" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="E1" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="F1" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C2">
         <v>600</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="C4">
         <v>2500</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="E4" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="F5" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4423,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AD8BB6-FBF9-43EC-A14D-47B1601D2659}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4447,68 +5110,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,1047 +5179,1053 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="C60" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C62" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C64" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C65" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="C70" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C72" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>392</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B76" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B78" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C78" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C79" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C81" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="B85" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C87" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="B90" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C90" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C91" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="C92" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B95" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C95" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B96" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="C97" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B98" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="C98" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="B99" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="C99" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="C101" t="s">
-        <v>470</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B101">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5566,8 +6235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D91F82-82FF-4CA0-8135-0117C5B8172B}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5590,68 +6259,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5659,1041 +6328,1042 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="C14" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C26" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C29" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="C33" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="C52" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="C53" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C54" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C57" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C59" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="C60" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="C61" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="C62" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C64" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C66" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B67" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C67" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C69" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="C70" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C71" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="C72" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B76" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="B78" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="C78" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C79" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C81" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="C84" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="B85" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C87" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="B89" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="B90" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="C90" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="C91" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="C92" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="C93" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B95" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="C95" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="B96" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="C96" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="C97" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="B98" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="C98" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="B99" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="C99" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B100" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="B101" t="s">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="C101" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/adventure_content.xlsx
+++ b/Assets/adventure_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T685554\OneDrive - Trinseo\Desktop\Work\Tools\Python\To Do List\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAD9A7-9297-42AB-A829-740A27D9CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAF05C-1F27-4C5B-ABD5-1E29D2715347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BF8CB3EB-9173-40BA-BB8C-D3341387AF17}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="1391">
   <si>
     <t>TypeModifier</t>
   </si>
@@ -1901,9 +1901,6 @@
     <t>The adventurer searches for a plunger.</t>
   </si>
   <si>
-    <t>The adventurer brews a pot of coffee, an ancient secret to banishing fatigue.</t>
-  </si>
-  <si>
     <t>Mechanical Malfunction</t>
   </si>
   <si>
@@ -3530,9 +3527,6 @@
     <t>Decaf coffee is brewing in the break room.</t>
   </si>
   <si>
-    <t>The adventurer sees a shadow linger in the archives, he stops and waits for it to pass.</t>
-  </si>
-  <si>
     <t>BaseName2</t>
   </si>
   <si>
@@ -4119,6 +4113,111 @@
   </si>
   <si>
     <t>Policeman</t>
+  </si>
+  <si>
+    <t>In the distance, the adventurer hears the sputtering chant of an ancient ritual for banishing fatigue, and carefully moves toward the break room.</t>
+  </si>
+  <si>
+    <t>The adventurer waits for a lingering shadow to exit the archives.</t>
+  </si>
+  <si>
+    <t>Burnt Toast</t>
+  </si>
+  <si>
+    <t>Moldy Sandwich</t>
+  </si>
+  <si>
+    <t>Cursed Staple</t>
+  </si>
+  <si>
+    <t>Spare Battery</t>
+  </si>
+  <si>
+    <t>Empty Pen</t>
+  </si>
+  <si>
+    <t>Network Diagram</t>
+  </si>
+  <si>
+    <t>Broken Relay</t>
+  </si>
+  <si>
+    <t>Cursed Stapler</t>
+  </si>
+  <si>
+    <t>Printer's Promise</t>
+  </si>
+  <si>
+    <t>Wire Jumper</t>
+  </si>
+  <si>
+    <t>Espresso Shot</t>
+  </si>
+  <si>
+    <t>Cold Coffee</t>
+  </si>
+  <si>
+    <t>Safety Donut</t>
+  </si>
+  <si>
+    <t>Mystery Energy Drink</t>
+  </si>
+  <si>
+    <t>Rusty Bandage</t>
+  </si>
+  <si>
+    <t>Expired First Aid Kit</t>
+  </si>
+  <si>
+    <t>Arcane Thermos</t>
+  </si>
+  <si>
+    <t>Recycled Air Packet</t>
+  </si>
+  <si>
+    <t>Chewing Bolt</t>
+  </si>
+  <si>
+    <t>Vending Machine Surprise</t>
+  </si>
+  <si>
+    <t>Decaf Latte</t>
+  </si>
+  <si>
+    <t>HR Memo</t>
+  </si>
+  <si>
+    <t>Boiler-Room Brew</t>
+  </si>
+  <si>
+    <t>Residual Veil Vapor</t>
+  </si>
+  <si>
+    <t>Shadow-Filtered Water</t>
+  </si>
+  <si>
+    <t>Photocopier Tonic</t>
+  </si>
+  <si>
+    <t>Faintly Glowing Chip</t>
+  </si>
+  <si>
+    <t>Smudged Blueprint</t>
+  </si>
+  <si>
+    <t>Handy Tool</t>
+  </si>
+  <si>
+    <t>Dusty Staple Remover</t>
+  </si>
+  <si>
+    <t>Glowing Post-It</t>
+  </si>
+  <si>
+    <t>Snack Bar</t>
+  </si>
+  <si>
+    <t>Melted Snack Bar</t>
   </si>
 </sst>
 </file>
@@ -4174,37 +4273,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4667,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777EBB67-9221-49C0-B4BC-5E4534CCD6A8}">
   <dimension ref="A1:O200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -4691,10 +4760,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H1"/>
       <c r="I1" s="2"/>
@@ -4704,16 +4773,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
@@ -4735,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E3" t="s">
         <v>436</v>
@@ -4754,16 +4823,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D4" t="s">
         <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
@@ -4779,16 +4848,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2"/>
@@ -4804,16 +4873,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E6" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
@@ -4829,16 +4898,16 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E7" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G7" s="2"/>
       <c r="I7" s="2"/>
@@ -4854,16 +4923,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E8" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8" s="2"/>
@@ -4879,16 +4948,16 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E9" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G9" s="2"/>
       <c r="I9" s="2"/>
@@ -4910,10 +4979,10 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E10" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
@@ -4929,16 +4998,16 @@
         <v>192</v>
       </c>
       <c r="B11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E11" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
@@ -4954,16 +5023,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E12" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
@@ -4982,13 +5051,13 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D13" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E13" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
@@ -5004,16 +5073,16 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E14" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
@@ -5029,16 +5098,16 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C15" t="s">
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E15" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
@@ -5060,10 +5129,10 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E16" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
@@ -5079,16 +5148,16 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E17" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G17" s="2"/>
       <c r="I17" s="2"/>
@@ -5104,16 +5173,16 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E18" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -5122,16 +5191,16 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E19" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -5146,10 +5215,10 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E20" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5158,16 +5227,16 @@
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E21" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5182,10 +5251,10 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E22" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -5194,16 +5263,16 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E23" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -5212,16 +5281,16 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E24" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -5230,16 +5299,16 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="E25" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5248,16 +5317,16 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E26" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5266,16 +5335,16 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E27" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -5290,10 +5359,10 @@
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E28" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -5302,16 +5371,16 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C29" t="s">
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E29" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -5320,16 +5389,16 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C30" t="s">
         <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E30" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -5338,16 +5407,16 @@
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" t="s">
         <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E31" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -5356,16 +5425,16 @@
         <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C32" t="s">
         <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E32" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -5374,16 +5443,16 @@
         <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E33" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -5398,28 +5467,28 @@
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E34" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E35" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -5428,16 +5497,16 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C36" t="s">
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E36" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -5446,16 +5515,16 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E37" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -5464,22 +5533,22 @@
         <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C38" t="s">
         <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E38" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -5488,10 +5557,10 @@
         <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E39" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -5506,10 +5575,10 @@
         <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E40" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -5518,16 +5587,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C41" t="s">
         <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E41" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -5536,16 +5605,16 @@
         <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C42" t="s">
         <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E42" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -5554,16 +5623,16 @@
         <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C43" t="s">
         <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E43" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -5578,10 +5647,10 @@
         <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E44" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -5590,16 +5659,16 @@
         <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E45" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -5608,16 +5677,16 @@
         <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C46" t="s">
         <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E46" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -5626,16 +5695,16 @@
         <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C47" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D47" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E47" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -5644,22 +5713,22 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C48" t="s">
         <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E48" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -5668,10 +5737,10 @@
         <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E49" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -5680,7 +5749,7 @@
         <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C50" t="s">
         <v>112</v>
@@ -5689,7 +5758,7 @@
         <v>513</v>
       </c>
       <c r="E50" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -5704,10 +5773,10 @@
         <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E51" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -5716,52 +5785,52 @@
         <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E52" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C53" t="s">
         <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E53" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B54" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C54" t="s">
         <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E54" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -5770,22 +5839,22 @@
         <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C55" t="s">
         <v>159</v>
       </c>
       <c r="D55" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E55" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -5794,10 +5863,10 @@
         <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E56" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -5806,16 +5875,16 @@
         <v>137</v>
       </c>
       <c r="B57" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C57" t="s">
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E57" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -5830,28 +5899,28 @@
         <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E58" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C59" t="s">
         <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E59" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -5860,22 +5929,22 @@
         <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E60" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
@@ -5884,16 +5953,16 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E61" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -5902,46 +5971,46 @@
         <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E62" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C63" t="s">
         <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E63" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B64" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C64" t="s">
         <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E64" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -5950,16 +6019,16 @@
         <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C65" t="s">
         <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E65" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -5974,10 +6043,10 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E66" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -5986,31 +6055,31 @@
         <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C67" t="s">
         <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E67" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C68" t="s">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="E68" t="s">
         <v>175</v>
@@ -6019,7 +6088,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -6028,10 +6097,10 @@
         <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E69" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -6046,16 +6115,16 @@
         <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E70" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -6064,10 +6133,10 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E71" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -6079,13 +6148,13 @@
         <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D72" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E72" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -6094,22 +6163,22 @@
         <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C73" t="s">
         <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E73" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
@@ -6118,28 +6187,28 @@
         <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E74" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B75" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C75" t="s">
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E75" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="I75" s="2"/>
     </row>
@@ -6148,25 +6217,25 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C76" t="s">
         <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E76" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B77" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C77" t="s">
         <v>185</v>
@@ -6175,49 +6244,49 @@
         <v>186</v>
       </c>
       <c r="E77" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B78" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C78" t="s">
         <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E78" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C79" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D79" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E79" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B80" t="s">
         <v>89</v>
@@ -6226,16 +6295,16 @@
         <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E80" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
@@ -6244,34 +6313,34 @@
         <v>140</v>
       </c>
       <c r="D81" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E81" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C82" t="s">
         <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E82" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B83" t="s">
         <v>207</v>
@@ -6280,25 +6349,25 @@
         <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E83" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B84" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C84" t="s">
         <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E84" t="s">
         <v>379</v>
@@ -6307,7 +6376,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -6316,52 +6385,52 @@
         <v>133</v>
       </c>
       <c r="D85" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E85" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B86" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C86" t="s">
         <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E86" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C87" t="s">
         <v>129</v>
       </c>
       <c r="D87" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E87" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B88" t="s">
         <v>75</v>
@@ -6370,46 +6439,46 @@
         <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E88" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B89" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C89" t="s">
         <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="E89" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B90" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C90" t="s">
         <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E90" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -6418,16 +6487,16 @@
         <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C91" t="s">
         <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E91" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -6442,28 +6511,28 @@
         <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E92" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B93" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C93" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D93" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E93" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -6472,16 +6541,16 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C94" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D94" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E94" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -6493,13 +6562,13 @@
         <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D95" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E95" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -6508,16 +6577,16 @@
         <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C96" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D96" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E96" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="I96" s="2"/>
     </row>
@@ -6526,16 +6595,16 @@
         <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D97" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E97" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -6544,16 +6613,16 @@
         <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C98" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D98" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E98" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -6562,16 +6631,16 @@
         <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C99" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D99" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E99" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -6583,31 +6652,31 @@
         <v>42</v>
       </c>
       <c r="C100" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D100" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E100" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B101" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D101" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E101" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -6913,16 +6982,16 @@
     <sortCondition ref="I1:I200"/>
   </sortState>
   <conditionalFormatting sqref="A1 A102:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B102:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B101">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8056,11 +8125,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8068,15 +8137,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DEBE21-55D1-4BA3-B798-71DAB6D087E7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8147,6 +8219,482 @@
       </c>
       <c r="D5">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9">
+        <v>-15</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C12">
+        <v>-30</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16">
+        <v>-60</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17">
+        <v>-10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18">
+        <v>-30</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B19" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19">
+        <v>-3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B20" t="s">
+        <v>521</v>
+      </c>
+      <c r="C20">
+        <v>-15</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B22" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22">
+        <v>-100</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>518</v>
+      </c>
+      <c r="C23">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26">
+        <v>-20</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B27" t="s">
+        <v>518</v>
+      </c>
+      <c r="C27">
+        <v>-5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B30" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B31" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C32">
+        <v>-25</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B33" t="s">
+        <v>521</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B34" t="s">
+        <v>518</v>
+      </c>
+      <c r="C34">
+        <v>-60</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B35" t="s">
+        <v>521</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>518</v>
+      </c>
+      <c r="C36">
+        <v>-100</v>
+      </c>
+      <c r="D36">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B38" t="s">
+        <v>521</v>
+      </c>
+      <c r="C38">
+        <v>-8</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -8231,7 +8779,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B4" t="s">
         <v>518</v>
@@ -8243,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F4">
         <v>25</v>
@@ -8251,7 +8799,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B5" t="s">
         <v>521</v>
@@ -8263,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F5">
         <v>75</v>
@@ -8278,7 +8826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B3ACF2-8FE7-40B3-A652-769AA5583BB6}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D70"/>
     </sheetView>
   </sheetViews>
@@ -8306,7 +8854,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8343,7 +8891,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8358,7 +8906,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8388,7 +8936,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -8413,7 +8961,7 @@
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
@@ -8463,7 +9011,7 @@
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>618</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
@@ -8648,17 +9196,17 @@
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>1161</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -8691,30 +9239,30 @@
         <v>538</v>
       </c>
       <c r="B1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C1" t="s">
         <v>912</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>913</v>
       </c>
-      <c r="D1" t="s">
-        <v>914</v>
-      </c>
       <c r="E1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B2" t="s">
         <v>915</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>916</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>917</v>
-      </c>
-      <c r="D2" t="s">
-        <v>918</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8722,16 +9270,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B3" t="s">
         <v>539</v>
       </c>
       <c r="C3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" t="s">
         <v>920</v>
-      </c>
-      <c r="D3" t="s">
-        <v>921</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8739,16 +9287,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4" t="s">
         <v>922</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>923</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>924</v>
-      </c>
-      <c r="D4" t="s">
-        <v>925</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -8756,16 +9304,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B5" t="s">
         <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -8773,16 +9321,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" t="s">
         <v>928</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>929</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>930</v>
-      </c>
-      <c r="D6" t="s">
-        <v>931</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8790,16 +9338,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B7" t="s">
         <v>539</v>
       </c>
       <c r="C7" t="s">
+        <v>932</v>
+      </c>
+      <c r="D7" t="s">
         <v>933</v>
-      </c>
-      <c r="D7" t="s">
-        <v>934</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -8807,16 +9355,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B8" t="s">
         <v>539</v>
       </c>
       <c r="C8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -8824,16 +9372,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B9" t="s">
         <v>156</v>
       </c>
       <c r="C9" t="s">
+        <v>937</v>
+      </c>
+      <c r="D9" t="s">
         <v>938</v>
-      </c>
-      <c r="D9" t="s">
-        <v>939</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -8841,16 +9389,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B10" t="s">
         <v>539</v>
       </c>
       <c r="C10" t="s">
+        <v>940</v>
+      </c>
+      <c r="D10" t="s">
         <v>941</v>
-      </c>
-      <c r="D10" t="s">
-        <v>942</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -8858,16 +9406,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>942</v>
+      </c>
+      <c r="B11" t="s">
+        <v>922</v>
+      </c>
+      <c r="C11" t="s">
+        <v>923</v>
+      </c>
+      <c r="D11" t="s">
         <v>943</v>
-      </c>
-      <c r="B11" t="s">
-        <v>923</v>
-      </c>
-      <c r="C11" t="s">
-        <v>924</v>
-      </c>
-      <c r="D11" t="s">
-        <v>944</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -8875,16 +9423,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B12" t="s">
         <v>539</v>
       </c>
       <c r="C12" t="s">
+        <v>945</v>
+      </c>
+      <c r="D12" t="s">
         <v>946</v>
-      </c>
-      <c r="D12" t="s">
-        <v>947</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -8892,16 +9440,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>947</v>
+      </c>
+      <c r="B13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" t="s">
+        <v>929</v>
+      </c>
+      <c r="D13" t="s">
         <v>948</v>
-      </c>
-      <c r="B13" t="s">
-        <v>929</v>
-      </c>
-      <c r="C13" t="s">
-        <v>930</v>
-      </c>
-      <c r="D13" t="s">
-        <v>949</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -8909,16 +9457,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -8926,16 +9474,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B15" t="s">
         <v>539</v>
       </c>
       <c r="C15" t="s">
+        <v>952</v>
+      </c>
+      <c r="D15" t="s">
         <v>953</v>
-      </c>
-      <c r="D15" t="s">
-        <v>954</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -8943,16 +9491,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>954</v>
+      </c>
+      <c r="B16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C16" t="s">
         <v>955</v>
       </c>
-      <c r="B16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>956</v>
-      </c>
-      <c r="D16" t="s">
-        <v>957</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -8960,16 +9508,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B17" t="s">
         <v>539</v>
       </c>
       <c r="C17" t="s">
+        <v>958</v>
+      </c>
+      <c r="D17" t="s">
         <v>959</v>
-      </c>
-      <c r="D17" t="s">
-        <v>960</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -8977,16 +9525,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B18" t="s">
         <v>539</v>
       </c>
       <c r="C18" t="s">
+        <v>961</v>
+      </c>
+      <c r="D18" t="s">
         <v>962</v>
-      </c>
-      <c r="D18" t="s">
-        <v>963</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -8994,16 +9542,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>963</v>
+      </c>
+      <c r="B19" t="s">
+        <v>928</v>
+      </c>
+      <c r="C19" t="s">
         <v>964</v>
       </c>
-      <c r="B19" t="s">
-        <v>929</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>965</v>
-      </c>
-      <c r="D19" t="s">
-        <v>966</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -9011,16 +9559,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B20" t="s">
         <v>539</v>
       </c>
       <c r="C20" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D20" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -9028,16 +9576,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B21" t="s">
         <v>539</v>
       </c>
       <c r="C21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -9045,16 +9593,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B22" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D22" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -9062,16 +9610,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B23" t="s">
         <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -9079,16 +9627,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B24" t="s">
         <v>539</v>
       </c>
       <c r="C24" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D24" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -9096,16 +9644,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>976</v>
+      </c>
+      <c r="B25" t="s">
+        <v>922</v>
+      </c>
+      <c r="C25" t="s">
+        <v>964</v>
+      </c>
+      <c r="D25" t="s">
         <v>977</v>
-      </c>
-      <c r="B25" t="s">
-        <v>923</v>
-      </c>
-      <c r="C25" t="s">
-        <v>965</v>
-      </c>
-      <c r="D25" t="s">
-        <v>978</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -9113,16 +9661,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B26" t="s">
         <v>539</v>
       </c>
       <c r="C26" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -9130,16 +9678,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>980</v>
+      </c>
+      <c r="B27" t="s">
+        <v>928</v>
+      </c>
+      <c r="C27" t="s">
+        <v>937</v>
+      </c>
+      <c r="D27" t="s">
         <v>981</v>
-      </c>
-      <c r="B27" t="s">
-        <v>929</v>
-      </c>
-      <c r="C27" t="s">
-        <v>938</v>
-      </c>
-      <c r="D27" t="s">
-        <v>982</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -9147,16 +9695,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B28" t="s">
         <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D28" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -9164,16 +9712,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B29" t="s">
         <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D29" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -9181,16 +9729,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B30" t="s">
         <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -9198,16 +9746,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B31" t="s">
         <v>539</v>
       </c>
       <c r="C31" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D31" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -9215,16 +9763,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B32" t="s">
         <v>539</v>
       </c>
       <c r="C32" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D32" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -9232,16 +9780,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>992</v>
+      </c>
+      <c r="B33" t="s">
+        <v>928</v>
+      </c>
+      <c r="C33" t="s">
+        <v>952</v>
+      </c>
+      <c r="D33" t="s">
         <v>993</v>
-      </c>
-      <c r="B33" t="s">
-        <v>929</v>
-      </c>
-      <c r="C33" t="s">
-        <v>953</v>
-      </c>
-      <c r="D33" t="s">
-        <v>994</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -9249,16 +9797,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B34" t="s">
         <v>539</v>
       </c>
       <c r="C34" t="s">
+        <v>995</v>
+      </c>
+      <c r="D34" t="s">
         <v>996</v>
-      </c>
-      <c r="D34" t="s">
-        <v>997</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -9266,16 +9814,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>997</v>
+      </c>
+      <c r="B35" t="s">
+        <v>922</v>
+      </c>
+      <c r="C35" t="s">
+        <v>995</v>
+      </c>
+      <c r="D35" t="s">
         <v>998</v>
-      </c>
-      <c r="B35" t="s">
-        <v>923</v>
-      </c>
-      <c r="C35" t="s">
-        <v>996</v>
-      </c>
-      <c r="D35" t="s">
-        <v>999</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -9283,16 +9831,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B36" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -9300,16 +9848,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B37" t="s">
         <v>1002</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" t="s">
         <v>1003</v>
-      </c>
-      <c r="C37" t="s">
-        <v>938</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1004</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -9317,16 +9865,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C38" t="s">
+        <v>937</v>
+      </c>
+      <c r="D38" t="s">
         <v>1005</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C38" t="s">
-        <v>938</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1006</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -9334,16 +9882,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B39" t="s">
         <v>539</v>
       </c>
       <c r="C39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -9351,16 +9899,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B40" t="s">
+        <v>928</v>
+      </c>
+      <c r="C40" t="s">
+        <v>932</v>
+      </c>
+      <c r="D40" t="s">
         <v>1009</v>
-      </c>
-      <c r="B40" t="s">
-        <v>929</v>
-      </c>
-      <c r="C40" t="s">
-        <v>933</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1010</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -9368,16 +9916,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B41" t="s">
         <v>539</v>
       </c>
       <c r="C41" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -9385,16 +9933,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B42" t="s">
+        <v>922</v>
+      </c>
+      <c r="C42" t="s">
+        <v>932</v>
+      </c>
+      <c r="D42" t="s">
         <v>1013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>923</v>
-      </c>
-      <c r="C42" t="s">
-        <v>933</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1014</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -9402,16 +9950,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B43" t="s">
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D43" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -9419,16 +9967,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B44" t="s">
         <v>539</v>
       </c>
       <c r="C44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D44" t="s">
         <v>1018</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1019</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -9436,16 +9984,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C45" t="s">
+        <v>932</v>
+      </c>
+      <c r="D45" t="s">
         <v>1020</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C45" t="s">
-        <v>933</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1021</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -9453,16 +10001,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B46" t="s">
         <v>539</v>
       </c>
       <c r="C46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D46" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -9470,16 +10018,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B47" t="s">
         <v>539</v>
       </c>
       <c r="C47" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D47" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -9487,16 +10035,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B48" t="s">
         <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D48" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -9504,16 +10052,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B49" t="s">
         <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D49" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -9521,16 +10069,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B50" t="s">
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D50" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -9538,16 +10086,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B51" t="s">
+        <v>922</v>
+      </c>
+      <c r="C51" t="s">
+        <v>932</v>
+      </c>
+      <c r="D51" t="s">
         <v>1032</v>
-      </c>
-      <c r="B51" t="s">
-        <v>923</v>
-      </c>
-      <c r="C51" t="s">
-        <v>933</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1033</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -9555,16 +10103,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B52" t="s">
         <v>165</v>
       </c>
       <c r="C52" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D52" t="s">
         <v>1035</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1036</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -9572,16 +10120,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B53" t="s">
         <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D53" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -9589,16 +10137,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B54" t="s">
         <v>539</v>
       </c>
       <c r="C54" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D54" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -9606,16 +10154,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B55" t="s">
         <v>539</v>
       </c>
       <c r="C55" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D55" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -9623,16 +10171,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B56" t="s">
         <v>156</v>
       </c>
       <c r="C56" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D56" t="s">
         <v>1044</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1045</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -9640,16 +10188,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B57" t="s">
+        <v>922</v>
+      </c>
+      <c r="C57" t="s">
+        <v>923</v>
+      </c>
+      <c r="D57" t="s">
         <v>1046</v>
-      </c>
-      <c r="B57" t="s">
-        <v>923</v>
-      </c>
-      <c r="C57" t="s">
-        <v>924</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1047</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -9657,16 +10205,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B58" t="s">
         <v>539</v>
       </c>
       <c r="C58" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D58" t="s">
         <v>1049</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1050</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -9674,16 +10222,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B59" t="s">
         <v>539</v>
       </c>
       <c r="C59" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D59" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -9691,16 +10239,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B60" t="s">
         <v>539</v>
       </c>
       <c r="C60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D60" t="s">
         <v>1054</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1055</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -9708,16 +10256,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B61" t="s">
+        <v>928</v>
+      </c>
+      <c r="C61" t="s">
+        <v>929</v>
+      </c>
+      <c r="D61" t="s">
         <v>1056</v>
-      </c>
-      <c r="B61" t="s">
-        <v>929</v>
-      </c>
-      <c r="C61" t="s">
-        <v>930</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1057</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -9725,16 +10273,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D62" t="s">
         <v>1058</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1059</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -9742,16 +10290,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B63" t="s">
         <v>539</v>
       </c>
       <c r="C63" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D63" t="s">
         <v>1061</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1062</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -9759,16 +10307,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B64" t="s">
         <v>1063</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>964</v>
+      </c>
+      <c r="D64" t="s">
         <v>1064</v>
-      </c>
-      <c r="C64" t="s">
-        <v>965</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1065</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -9776,16 +10324,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B65" t="s">
         <v>539</v>
       </c>
       <c r="C65" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D65" t="s">
         <v>1067</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1068</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -9793,16 +10341,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B66" t="s">
         <v>1069</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D66" t="s">
         <v>1070</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1071</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -9810,16 +10358,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B67" t="s">
         <v>539</v>
       </c>
       <c r="C67" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D67" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -9827,16 +10375,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B68" t="s">
         <v>539</v>
       </c>
       <c r="C68" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D68" t="s">
         <v>1075</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1076</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -9844,16 +10392,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B69" t="s">
         <v>539</v>
       </c>
       <c r="C69" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D69" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -9861,16 +10409,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C70" t="s">
+        <v>964</v>
+      </c>
+      <c r="D70" t="s">
         <v>1079</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C70" t="s">
-        <v>965</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1080</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -9878,16 +10426,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B71" t="s">
         <v>539</v>
       </c>
       <c r="C71" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D71" t="s">
         <v>1082</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1083</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -9895,16 +10443,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C72" t="s">
+        <v>923</v>
+      </c>
+      <c r="D72" t="s">
         <v>1084</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C72" t="s">
-        <v>924</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1085</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -9912,16 +10460,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C73" t="s">
+        <v>964</v>
+      </c>
+      <c r="D73" t="s">
         <v>1086</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C73" t="s">
-        <v>965</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1087</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -9929,16 +10477,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B74" t="s">
         <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D74" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -9946,16 +10494,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B75" t="s">
+        <v>928</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D75" t="s">
         <v>1090</v>
-      </c>
-      <c r="B75" t="s">
-        <v>929</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1091</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -9963,16 +10511,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B76" t="s">
         <v>165</v>
       </c>
       <c r="C76" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D76" t="s">
         <v>1093</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1094</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -9980,16 +10528,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B77" t="s">
         <v>539</v>
       </c>
       <c r="C77" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D77" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -9997,16 +10545,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B78" t="s">
         <v>165</v>
       </c>
       <c r="C78" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D78" t="s">
         <v>1098</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1099</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -10014,16 +10562,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D79" t="s">
         <v>1100</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1101</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -10031,16 +10579,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B80" t="s">
         <v>539</v>
       </c>
       <c r="C80" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D80" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -10048,16 +10596,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B81" t="s">
         <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D81" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -10065,16 +10613,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B82" t="s">
         <v>539</v>
       </c>
       <c r="C82" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D82" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -10082,16 +10630,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>922</v>
+      </c>
+      <c r="C83" t="s">
+        <v>964</v>
+      </c>
+      <c r="D83" t="s">
         <v>1108</v>
-      </c>
-      <c r="B83" t="s">
-        <v>923</v>
-      </c>
-      <c r="C83" t="s">
-        <v>965</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1109</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -10099,16 +10647,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B84" t="s">
         <v>539</v>
       </c>
       <c r="C84" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D84" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -10116,16 +10664,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B85" t="s">
         <v>539</v>
       </c>
       <c r="C85" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D85" t="s">
         <v>1113</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1114</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -10133,16 +10681,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>928</v>
+      </c>
+      <c r="C86" t="s">
+        <v>932</v>
+      </c>
+      <c r="D86" t="s">
         <v>1115</v>
-      </c>
-      <c r="B86" t="s">
-        <v>929</v>
-      </c>
-      <c r="C86" t="s">
-        <v>933</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1116</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -10150,16 +10698,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>932</v>
+      </c>
+      <c r="D87" t="s">
         <v>1117</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C87" t="s">
-        <v>933</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1118</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -10167,16 +10715,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B88" t="s">
         <v>539</v>
       </c>
       <c r="C88" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D88" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -10184,16 +10732,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B89" t="s">
         <v>165</v>
       </c>
       <c r="C89" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D89" t="s">
         <v>1122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1123</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -10201,16 +10749,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B90" t="s">
         <v>539</v>
       </c>
       <c r="C90" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D90" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -10218,16 +10766,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B91" t="s">
         <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D91" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -10235,16 +10783,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B92" t="s">
         <v>539</v>
       </c>
       <c r="C92" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D92" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -10252,16 +10800,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B93" t="s">
         <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D93" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -10269,16 +10817,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B94" t="s">
+        <v>922</v>
+      </c>
+      <c r="C94" t="s">
+        <v>937</v>
+      </c>
+      <c r="D94" t="s">
         <v>1132</v>
-      </c>
-      <c r="B94" t="s">
-        <v>923</v>
-      </c>
-      <c r="C94" t="s">
-        <v>938</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1133</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -10286,16 +10834,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>928</v>
+      </c>
+      <c r="C95" t="s">
+        <v>929</v>
+      </c>
+      <c r="D95" t="s">
         <v>1134</v>
-      </c>
-      <c r="B95" t="s">
-        <v>929</v>
-      </c>
-      <c r="C95" t="s">
-        <v>930</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1135</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -10303,16 +10851,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C96" t="s">
+        <v>940</v>
+      </c>
+      <c r="D96" t="s">
         <v>1136</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C96" t="s">
-        <v>941</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1137</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -10320,16 +10868,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B97" t="s">
         <v>539</v>
       </c>
       <c r="C97" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D97" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E97">
         <v>96</v>
@@ -10337,16 +10885,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C98" t="s">
+        <v>964</v>
+      </c>
+      <c r="D98" t="s">
         <v>1140</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C98" t="s">
-        <v>965</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1141</v>
       </c>
       <c r="E98">
         <v>97</v>
@@ -10354,16 +10902,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B99" t="s">
         <v>539</v>
       </c>
       <c r="C99" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D99" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E99">
         <v>98</v>
@@ -10371,16 +10919,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B100" t="s">
         <v>539</v>
       </c>
       <c r="C100" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D100" t="s">
         <v>1145</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1146</v>
       </c>
       <c r="E100">
         <v>99</v>
@@ -10388,16 +10936,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B101" t="s">
         <v>539</v>
       </c>
       <c r="C101" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D101" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -10405,16 +10953,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B102" t="s">
         <v>539</v>
       </c>
       <c r="C102" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D102" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E102">
         <v>101</v>
@@ -10422,16 +10970,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B103" t="s">
         <v>539</v>
       </c>
       <c r="C103" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D103" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E103">
         <v>102</v>
@@ -10439,16 +10987,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B104" t="s">
         <v>539</v>
       </c>
       <c r="C104" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D104" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E104">
         <v>103</v>
@@ -10477,807 +11025,807 @@
         <v>538</v>
       </c>
       <c r="B1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B44" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B45" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B48" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B50" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B54" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B55" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B57" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B59" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B62" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B66" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B69" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B71" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B77" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B79" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B80" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B81" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B83" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B84" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B85" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B86" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B87" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B88" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B89" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B91" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B92" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B93" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B94" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B96" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B97" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B98" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B99" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B100" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -11453,613 +12001,613 @@
         <v>538</v>
       </c>
       <c r="B1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B18" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B22" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B23" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B24" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B28" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B44" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B45" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B46" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B47" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B48" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B50" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B54" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B55" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B56" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B57" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B58" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B59" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B61" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B62" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B66" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B68" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B69" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B70" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B71" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B73" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B75" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B76" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -13537,22 +14085,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B101">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C101">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
